--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="21320" yWindow="40" windowWidth="12260" windowHeight="20460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="140001" refMode="R1C1" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -157,6 +162,9 @@
   </si>
   <si>
     <t>Viva Las Gay-Gas</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
 </sst>
 </file>
@@ -496,305 +504,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="8" spans="1:4">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="13" spans="1:4">
+      <c r="A13">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1">
+        <v>34820</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1">
-        <v>34820</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D26">
+    <sortCondition ref="A2:A26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -804,9 +870,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -816,8 +887,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -200,9 +200,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,14 +512,15 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -527,7 +533,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -541,7 +547,7 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -555,7 +561,7 @@
       <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
     </row>
@@ -569,7 +575,7 @@
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -583,7 +589,7 @@
       <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -597,7 +603,7 @@
       <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>11</v>
       </c>
     </row>
@@ -611,7 +617,7 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -625,7 +631,7 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -639,7 +645,7 @@
       <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>3</v>
       </c>
     </row>
@@ -653,7 +659,7 @@
       <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -667,7 +673,7 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -681,7 +687,7 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -695,7 +701,7 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -709,7 +715,7 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -723,7 +729,7 @@
       <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>2</v>
       </c>
     </row>
@@ -737,7 +743,7 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -748,7 +754,7 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -759,7 +765,7 @@
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -770,7 +776,7 @@
       <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -781,7 +787,7 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -792,7 +798,7 @@
       <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -803,7 +809,7 @@
       <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -814,7 +820,7 @@
       <c r="C23" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>34820</v>
       </c>
     </row>
@@ -825,7 +831,7 @@
       <c r="C24" t="s">
         <v>36</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -836,7 +842,7 @@
       <c r="C25" t="s">
         <v>38</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -847,7 +853,7 @@
       <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -856,6 +862,7 @@
     <sortCondition ref="A2:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
